--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\OneDrive\Pós-graduação\3 - Projetos\projeto EPS\Variáveis feitas\Variáveis Energy Innovation\InputData\dist-heat\BFoHfC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d07 dist-heat\BFoHfC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F4E1CCB-84F7-45BD-B8EA-179906D1A64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD1475-3F20-49D2-B047-F5ACD304DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17220" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
@@ -54,15 +57,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>It does not matter if some of these fuel types are not used</t>
-  </si>
-  <si>
-    <t>for district heat; the fraction of each fuel that is used is</t>
-  </si>
-  <si>
-    <t>governed by another input variable.</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -75,19 +69,7 @@
     <t>hydrogen</t>
   </si>
   <si>
-    <t>We do not have data on how Combined Heat and Power (CHP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fraction varies by fuel type.</t>
-  </si>
-  <si>
-    <t>So we assume the overall CHP fraction applies to all fuel types.</t>
-  </si>
-  <si>
     <t>Fraction of Heat from CHP (dimensionless)</t>
-  </si>
-  <si>
-    <t>Notes:</t>
   </si>
   <si>
     <t>Note on the Brazilian model:</t>
@@ -95,12 +77,15 @@
   <si>
     <t>District heat variables are not applicable to Brazil, given its climatic conditions. Thus, we set it to zero.</t>
   </si>
+  <si>
+    <t>Notes:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +97,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF3333FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,22 +141,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,9 +186,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,9 +226,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,26 +261,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,26 +296,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+      <selection activeCell="B3" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,50 +489,21 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -572,9 +518,7 @@
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -583,112 +527,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="4">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="4">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="4">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="4">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="4">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="4">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="4">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="4">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="4">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="4">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="4">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="4">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="4">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="4">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="4">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="4">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="4">
         <v>2049</v>
       </c>
       <c r="AK1">
@@ -1375,7 +1319,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1488,7 +1432,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1601,7 +1545,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1714,7 +1658,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
